--- a/biology/Botanique/Forêt_impénétrable_de_Bwindi/Forêt_impénétrable_de_Bwindi.xlsx
+++ b/biology/Botanique/Forêt_impénétrable_de_Bwindi/Forêt_impénétrable_de_Bwindi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_imp%C3%A9n%C3%A9trable_de_Bwindi</t>
+          <t>Forêt_impénétrable_de_Bwindi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt impénétrable de Bwindi est située au sud-ouest de l'Ouganda en Afrique de l'Est. Un parc national se trouve sur le territoire de la forêt, situé le long de la frontière avec la république démocratique du Congo, à proximité du parc national des Virunga, en bordure de la vallée du Grand Rift. Le parc a une superficie de 331 km2, composée essentiellement de jungle de montagne et de plaine. Le parc est surtout connu pour abriter environ 430 gorilles de montagne (en 2011), soit près de la moitié de la population de cette espèce menacée (la population totale des gorilles des montagnes est estimée par l'UICN en 2008 à 680 individus ; en 2010 à 880 ; et en 2018 à 1004).
